--- a/leetcode/Sep_leetcodetracker.xlsx
+++ b/leetcode/Sep_leetcodetracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7FBEB-CE3F-D640-9E0C-B9DCA845522C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A337A-D964-EB47-AD70-0E1BB2C5A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1437,9 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>45556</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
       <c r="D24" s="11"/>

--- a/leetcode/Sep_leetcodetracker.xlsx
+++ b/leetcode/Sep_leetcodetracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A337A-D964-EB47-AD70-0E1BB2C5A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C76F3-4A65-FC44-B01C-3BB397D4961C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">striver </t>
   </si>
   <si>
-    <t>6 questions a day</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
@@ -342,6 +339,54 @@
   </si>
   <si>
     <t>10:36am</t>
+  </si>
+  <si>
+    <t>6:00am</t>
+  </si>
+  <si>
+    <t>12:23am</t>
+  </si>
+  <si>
+    <t>15:23am</t>
+  </si>
+  <si>
+    <t>13 days</t>
+  </si>
+  <si>
+    <t>2dp :4 questions left</t>
+  </si>
+  <si>
+    <t>3:08am</t>
+  </si>
+  <si>
+    <t>5;18am</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>5 questions a day</t>
+  </si>
+  <si>
+    <t>SIT FOR 10 HOUS AND STUDY---BOYCOTT EVERYTHING</t>
+  </si>
+  <si>
+    <t>5 questions a day from tm3 onwards</t>
+  </si>
+  <si>
+    <t>LEAVE EVERYTHING&lt; BOYCOTT EVERYTHINGGGGGGG</t>
+  </si>
+  <si>
+    <t>8:30am</t>
+  </si>
+  <si>
+    <t>11:08am</t>
+  </si>
+  <si>
+    <t>12:16pm</t>
+  </si>
+  <si>
+    <t>1:14pm</t>
   </si>
 </sst>
 </file>
@@ -889,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9B0579-A1A3-6345-8471-7145320CE37A}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +949,7 @@
     <col min="10" max="10" width="10.83203125" style="10"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="10"/>
-    <col min="14" max="14" width="28.83203125" customWidth="1"/>
+    <col min="14" max="14" width="35.83203125" customWidth="1"/>
     <col min="15" max="15" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -925,7 +970,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -955,13 +1000,13 @@
         <v>25</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1045,16 +1090,16 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>10</v>
@@ -1063,7 +1108,7 @@
         <v>81</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>17</v>
@@ -1078,16 +1123,16 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>10</v>
@@ -1096,10 +1141,10 @@
         <v>78</v>
       </c>
       <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
         <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1107,29 +1152,29 @@
         <v>45538</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="10">
         <v>76</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1142,33 +1187,33 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="6"/>
       <c r="D12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="10">
         <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1181,7 +1226,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -1189,16 +1234,16 @@
         <v>45542</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="F14" s="11">
         <v>0.35486111111111113</v>
@@ -1217,7 +1262,7 @@
         <v>23</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -1225,10 +1270,10 @@
         <v>45543</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1252,7 +1297,7 @@
         <v>45549</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="11"/>
@@ -1266,34 +1311,34 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="10">
         <v>61</v>
       </c>
       <c r="M18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" t="s">
         <v>69</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>70</v>
-      </c>
-      <c r="O18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1301,13 +1346,13 @@
         <v>45551</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1320,31 +1365,31 @@
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
       <c r="D20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="10">
         <v>57</v>
       </c>
       <c r="M20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" t="s">
         <v>80</v>
-      </c>
-      <c r="N20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1354,28 +1399,28 @@
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
       <c r="D21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="10">
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1384,16 +1429,16 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>10</v>
@@ -1402,10 +1447,10 @@
         <v>46</v>
       </c>
       <c r="M22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" t="s">
         <v>93</v>
-      </c>
-      <c r="N22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1414,26 +1459,26 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="F23" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" t="s">
         <v>98</v>
-      </c>
-      <c r="N23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1442,26 +1487,68 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="17"/>
+      <c r="D24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10">
+        <v>38</v>
+      </c>
+      <c r="M24" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3">
+        <v>45557</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G25" s="17"/>
+      <c r="N25" t="s">
+        <v>111</v>
+      </c>
+      <c r="O25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="3">
+        <v>45558</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="17"/>
+      <c r="I26" s="10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -1477,7 +1564,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1502,13 +1589,16 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="17"/>
+      <c r="I30" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1550,7 +1640,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="17"/>
       <c r="N35" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">

--- a/leetcode/Sep_leetcodetracker.xlsx
+++ b/leetcode/Sep_leetcodetracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C76F3-4A65-FC44-B01C-3BB397D4961C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00F8D61-3217-8745-BFB7-9FDA0858949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -365,9 +365,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>5 questions a day</t>
-  </si>
-  <si>
     <t>SIT FOR 10 HOUS AND STUDY---BOYCOTT EVERYTHING</t>
   </si>
   <si>
@@ -387,6 +384,39 @@
   </si>
   <si>
     <t>1:14pm</t>
+  </si>
+  <si>
+    <t>6:31pm</t>
+  </si>
+  <si>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>5:36am</t>
+  </si>
+  <si>
+    <t>6:07pm</t>
+  </si>
+  <si>
+    <t>6:28pm</t>
+  </si>
+  <si>
+    <t>25th-Sep</t>
+  </si>
+  <si>
+    <t>7:14AM</t>
+  </si>
+  <si>
+    <t>8:07am</t>
+  </si>
+  <si>
+    <t>8:47am</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>1 greedy , 6 interval pending</t>
   </si>
 </sst>
 </file>
@@ -935,7 +965,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,10 +1552,10 @@
       </c>
       <c r="G25" s="17"/>
       <c r="N25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" t="s">
         <v>111</v>
-      </c>
-      <c r="O25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1533,42 +1563,75 @@
         <v>45558</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="17"/>
-      <c r="I26" s="10" t="s">
-        <v>110</v>
+      <c r="G26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="3">
+        <v>45559</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="17"/>
+      <c r="O27" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="G28" s="17"/>
+      <c r="I28" s="10">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>125</v>
+      </c>
+      <c r="N28" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>

--- a/leetcode/Sep_leetcodetracker.xlsx
+++ b/leetcode/Sep_leetcodetracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00F8D61-3217-8745-BFB7-9FDA0858949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C287F04-766A-6541-A991-0F2052BC1563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
   <sheets>
     <sheet name="neetcode 150 Tracker" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -401,9 +402,6 @@
     <t>6:28pm</t>
   </si>
   <si>
-    <t>25th-Sep</t>
-  </si>
-  <si>
     <t>7:14AM</t>
   </si>
   <si>
@@ -416,14 +414,314 @@
     <t>10 days</t>
   </si>
   <si>
-    <t>1 greedy , 6 interval pending</t>
+    <t>6:54pm</t>
+  </si>
+  <si>
+    <t>greedy over , 6 interval pending</t>
+  </si>
+  <si>
+    <t>11:36am</t>
+  </si>
+  <si>
+    <t>12:27pm</t>
+  </si>
+  <si>
+    <t>#drawing in a number line intervals is import in interval questions</t>
+  </si>
+  <si>
+    <t># always think of sorting before merign in inteval questions</t>
+  </si>
+  <si>
+    <t>#sort by starting index</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]]:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>intervals.sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>key=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>1:04pm</t>
+  </si>
+  <si>
+    <t>4 intervals problem pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,6 +749,36 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF608B4E"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFDCDCDC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -551,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,13 +943,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -962,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9B0579-A1A3-6345-8471-7145320CE37A}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,7 +1321,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="25"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1684,7 @@
       <c r="G18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="11" t="s">
         <v>67</v>
       </c>
       <c r="I18" s="10">
@@ -1387,6 +1716,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="17"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1406,7 +1736,7 @@
       <c r="G20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I20" s="10">
@@ -1440,7 +1770,7 @@
       <c r="G21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="11" t="s">
         <v>85</v>
       </c>
       <c r="I21" s="10">
@@ -1473,6 +1803,7 @@
       <c r="G22" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="10">
         <v>46</v>
       </c>
@@ -1497,11 +1828,11 @@
       <c r="E23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="26" t="s">
         <v>100</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="11" t="s">
         <v>82</v>
       </c>
       <c r="M23" t="s">
@@ -1529,6 +1860,7 @@
       <c r="G24" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="H24" s="11"/>
       <c r="I24" s="10">
         <v>38</v>
       </c>
@@ -1551,6 +1883,7 @@
         <v>107</v>
       </c>
       <c r="G25" s="17"/>
+      <c r="H25" s="11"/>
       <c r="N25" t="s">
         <v>110</v>
       </c>
@@ -1580,6 +1913,7 @@
       <c r="G26" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="H26" s="11"/>
       <c r="I26" s="10">
         <v>34</v>
       </c>
@@ -1603,52 +1937,69 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="17"/>
+      <c r="H27" s="11"/>
       <c r="O27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>121</v>
+      <c r="A28" s="3">
+        <v>45560</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="10">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
         <v>124</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="I28" s="10">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s">
-        <v>125</v>
       </c>
       <c r="N28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="3">
+        <v>45561</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="17"/>
+      <c r="H29" s="11"/>
+      <c r="N29" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="17"/>
@@ -1660,9 +2011,6 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="17"/>
@@ -1702,7 +2050,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="17"/>
-      <c r="N35" s="29" t="s">
+      <c r="N35" s="27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1723,6 +2071,14 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="17"/>
+      <c r="N37" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1730,4 +2086,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B735FA6-CBB3-3946-B93E-0EA3535BAD07}">
+  <dimension ref="B15:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="15" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/leetcode/Sep_leetcodetracker.xlsx
+++ b/leetcode/Sep_leetcodetracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C287F04-766A-6541-A991-0F2052BC1563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C374AE3-77E5-3F46-8C99-C5CAA773B034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -363,9 +363,6 @@
     <t>5;18am</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>SIT FOR 10 HOUS AND STUDY---BOYCOTT EVERYTHING</t>
   </si>
   <si>
@@ -714,7 +711,37 @@
     <t>1:04pm</t>
   </si>
   <si>
-    <t>4 intervals problem pending</t>
+    <t>6:17pm</t>
+  </si>
+  <si>
+    <t>2 intervals problem pending</t>
+  </si>
+  <si>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>6:43pm</t>
+  </si>
+  <si>
+    <t>everyday 4 questions</t>
+  </si>
+  <si>
+    <t>9:00am</t>
+  </si>
+  <si>
+    <t>10:18AM</t>
+  </si>
+  <si>
+    <t>10:46am</t>
+  </si>
+  <si>
+    <t>12:22pm</t>
+  </si>
+  <si>
+    <t>intervals over, 8 math and geometry question left</t>
+  </si>
+  <si>
+    <t>1:15pm</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9B0579-A1A3-6345-8471-7145320CE37A}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1607,7 +1634,7 @@
       <c r="F14" s="11">
         <v>0.35486111111111113</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19">
@@ -1681,7 +1708,7 @@
       <c r="F18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="11" t="s">
@@ -1733,7 +1760,7 @@
       <c r="F20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -1767,7 +1794,7 @@
       <c r="F21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -1800,7 +1827,7 @@
       <c r="F22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="11"/>
@@ -1857,7 +1884,7 @@
       <c r="F24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="11"/>
@@ -1879,16 +1906,18 @@
         <v>106</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="11" t="s">
         <v>107</v>
       </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="17"/>
       <c r="H25" s="11"/>
       <c r="N25" t="s">
+        <v>109</v>
+      </c>
+      <c r="O25" t="s">
         <v>110</v>
-      </c>
-      <c r="O25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1896,21 +1925,21 @@
         <v>45558</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="11"/>
@@ -1918,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1926,20 +1955,20 @@
         <v>45559</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="17"/>
       <c r="H27" s="11"/>
       <c r="O27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1948,29 +1977,29 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" s="10">
         <v>28</v>
       </c>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1981,47 +2010,73 @@
         <v>95</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="10">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>137</v>
+      </c>
       <c r="N29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="A30" s="3">
+        <v>45562</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="G30" s="17"/>
-      <c r="I30" s="10" t="s">
-        <v>108</v>
+      <c r="N30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2041,6 +2096,9 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="17"/>
+      <c r="N34" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
@@ -2100,32 +2158,32 @@
   <sheetData>
     <row r="15" spans="2:2" ht="22" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="22" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="22" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="22" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="22" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="22" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/Sep_leetcodetracker.xlsx
+++ b/leetcode/Sep_leetcodetracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshisrivastava/Desktop/hanumant_fullstack/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C374AE3-77E5-3F46-8C99-C5CAA773B034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4F3332-B05C-BA43-B903-2113CB1BE92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{7223D205-73F4-4148-BF4C-16C1EFE483E0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="161">
   <si>
     <t>Sakshi neetcode Track</t>
   </si>
@@ -114,12 +114,6 @@
     <t>7:29pm</t>
   </si>
   <si>
-    <t>pending days</t>
-  </si>
-  <si>
-    <t>28 days nonstop</t>
-  </si>
-  <si>
     <t>30lakh package</t>
   </si>
   <si>
@@ -742,13 +736,64 @@
   </si>
   <si>
     <t>1:15pm</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DADDDDDD SWEARRRRRRRR </t>
+  </si>
+  <si>
+    <t>7:28am</t>
+  </si>
+  <si>
+    <t>should be 15</t>
+  </si>
+  <si>
+    <t>8:19am</t>
+  </si>
+  <si>
+    <t>11:29am,12:35am,1:29pm:4:41pm</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>finish dp and bit manipulation 7 question</t>
+  </si>
+  <si>
+    <t>stack 1 hard question</t>
+  </si>
+  <si>
+    <t>linked list 1 med 2 hard =3</t>
+  </si>
+  <si>
+    <t>graph:1 med</t>
+  </si>
+  <si>
+    <t>2D: one medium and hard=2</t>
+  </si>
+  <si>
+    <t>Questions left: 7</t>
+  </si>
+  <si>
+    <t>Revise: 5 question a day: 30 days</t>
+  </si>
+  <si>
+    <t>https://www.techinterviewhandbook.org/grind75/?hours=40&amp;weeks=7</t>
+  </si>
+  <si>
+    <t>Grind75 after revison</t>
+  </si>
+  <si>
+    <t>revison SHOULD START</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -806,6 +851,20 @@
       <color rgb="FFB5CEA8"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -906,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,10 +1033,20 @@
     <xf numFmtId="20" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1318,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9B0579-A1A3-6345-8471-7145320CE37A}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,21 +1399,20 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="10"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="10"/>
-    <col min="14" max="14" width="35.83203125" customWidth="1"/>
-    <col min="15" max="15" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="10"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="35.83203125" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,10 +1421,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1383,19 +1451,16 @@
         <v>19</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45533</v>
       </c>
@@ -1416,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45534</v>
       </c>
@@ -1443,7 +1508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45535</v>
       </c>
@@ -1466,26 +1531,23 @@
       <c r="I7" s="10">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45536</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>10</v>
@@ -1493,32 +1555,32 @@
       <c r="I8" s="10">
         <v>81</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>34</v>
+      <c r="K8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45537</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>10</v>
@@ -1526,44 +1588,44 @@
       <c r="I9" s="10">
         <v>78</v>
       </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
       <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45538</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="10">
         <v>76</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45539</v>
       </c>
@@ -1573,36 +1635,36 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="6"/>
       <c r="D12" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="10">
         <v>73</v>
       </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
       <c r="M12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45541</v>
       </c>
@@ -1612,24 +1674,24 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45542</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="F14" s="11">
         <v>0.35486111111111113</v>
@@ -1643,23 +1705,23 @@
       <c r="J14" s="20">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="18">
+      <c r="K14" s="19"/>
+      <c r="L14" s="18">
         <v>23</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>45543</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1667,9 +1729,9 @@
       <c r="G15" s="22"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="6"/>
@@ -1678,12 +1740,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45549</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="11"/>
@@ -1691,141 +1753,141 @@
       <c r="F17" s="11"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45550</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I18" s="10">
         <v>61</v>
       </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
       <c r="M18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" t="s">
         <v>68</v>
       </c>
-      <c r="N18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45551</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="17"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45552</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
       <c r="D20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" s="10">
         <v>57</v>
       </c>
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N20" t="s">
         <v>78</v>
       </c>
-      <c r="O20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45553</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
       <c r="D21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="10">
         <v>51</v>
       </c>
+      <c r="L21" t="s">
+        <v>85</v>
+      </c>
       <c r="M21" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45554</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>10</v>
@@ -1834,55 +1896,55 @@
       <c r="I22" s="10">
         <v>46</v>
       </c>
+      <c r="L22" t="s">
+        <v>90</v>
+      </c>
       <c r="M22" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>45555</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="F23" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="L23" t="s">
+        <v>95</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
-      </c>
-      <c r="N23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45556</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
       <c r="D24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>10</v>
@@ -1891,53 +1953,53 @@
       <c r="I24" s="10">
         <v>38</v>
       </c>
+      <c r="L24" t="s">
+        <v>102</v>
+      </c>
       <c r="M24" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45557</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="17"/>
       <c r="H25" s="11"/>
+      <c r="M25" t="s">
+        <v>107</v>
+      </c>
       <c r="N25" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>45558</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="E26" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>10</v>
@@ -1946,170 +2008,227 @@
       <c r="I26" s="10">
         <v>34</v>
       </c>
-      <c r="M26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>45559</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="17"/>
       <c r="H27" s="11"/>
-      <c r="O27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>45560</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
       <c r="D28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I28" s="10">
         <v>28</v>
       </c>
+      <c r="L28" t="s">
+        <v>121</v>
+      </c>
       <c r="M28" t="s">
         <v>123</v>
       </c>
-      <c r="N28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45561</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I29" s="10">
         <v>24</v>
       </c>
+      <c r="L29" t="s">
+        <v>135</v>
+      </c>
       <c r="M29" t="s">
-        <v>137</v>
-      </c>
-      <c r="N29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>45562</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="E30" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="I30" s="10">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="N30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
+        <v>45563</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+      <c r="D31" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="10">
+        <v>14</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="N31" s="30"/>
+    </row>
+    <row r="32" spans="1:14" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <v>45564</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="6"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="17"/>
+      <c r="I32" s="10">
+        <v>7</v>
+      </c>
+      <c r="M32" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>45565</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="17"/>
+      <c r="I33" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3">
+        <v>45536</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="17"/>
-      <c r="N34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="I34" s="10">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="27" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>45537</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="17"/>
-      <c r="N35" s="27" t="s">
-        <v>99</v>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2129,19 +2248,57 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="17"/>
-      <c r="N37" s="6" t="s">
-        <v>29</v>
+      <c r="M37" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N38" s="6" t="s">
-        <v>28</v>
+      <c r="M38" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>159</v>
+      </c>
+      <c r="M50" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N35" r:id="rId1" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock" xr:uid="{441546F9-E036-EC4A-813C-1823F48494E8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2157,33 +2314,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="15" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+    <row r="18" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+    <row r="19" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+    <row r="20" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
